--- a/Code/Results/Cases/Case_2_180/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_180/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.003200297159762</v>
+        <v>1.025947876515066</v>
       </c>
       <c r="D2">
-        <v>1.019321448401344</v>
+        <v>1.030600807718336</v>
       </c>
       <c r="E2">
-        <v>1.01750071124718</v>
+        <v>1.050410729326888</v>
       </c>
       <c r="F2">
-        <v>1.02379361471455</v>
+        <v>1.055248167865698</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042666052569974</v>
+        <v>1.034427613586252</v>
       </c>
       <c r="J2">
-        <v>1.025285707419481</v>
+        <v>1.031114052051779</v>
       </c>
       <c r="K2">
-        <v>1.030518010709965</v>
+        <v>1.033411348109769</v>
       </c>
       <c r="L2">
-        <v>1.028721500786566</v>
+        <v>1.053165082743529</v>
       </c>
       <c r="M2">
-        <v>1.034931127675718</v>
+        <v>1.05798914817972</v>
       </c>
       <c r="N2">
-        <v>1.012419569445475</v>
+        <v>1.014418142644217</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.00660918293268</v>
+        <v>1.026666382971807</v>
       </c>
       <c r="D3">
-        <v>1.021667248109567</v>
+        <v>1.0311165512366</v>
       </c>
       <c r="E3">
-        <v>1.021780286592526</v>
+        <v>1.051413850396665</v>
       </c>
       <c r="F3">
-        <v>1.028114773616055</v>
+        <v>1.056253265434431</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043520310013861</v>
+        <v>1.034565360641614</v>
       </c>
       <c r="J3">
-        <v>1.026921282261324</v>
+        <v>1.031473300402063</v>
       </c>
       <c r="K3">
-        <v>1.032030199929488</v>
+        <v>1.033736266708319</v>
       </c>
       <c r="L3">
-        <v>1.03214186748443</v>
+        <v>1.053980153303403</v>
       </c>
       <c r="M3">
-        <v>1.038400127516432</v>
+        <v>1.058807160298519</v>
       </c>
       <c r="N3">
-        <v>1.01296388964208</v>
+        <v>1.014537384150392</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.008775922710502</v>
+        <v>1.027131849328898</v>
       </c>
       <c r="D4">
-        <v>1.02316104679686</v>
+        <v>1.031450720881166</v>
       </c>
       <c r="E4">
-        <v>1.024505074816682</v>
+        <v>1.052064285558571</v>
       </c>
       <c r="F4">
-        <v>1.030864846716586</v>
+        <v>1.056904836685662</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044055060797428</v>
+        <v>1.034653585377006</v>
       </c>
       <c r="J4">
-        <v>1.02795777272278</v>
+        <v>1.03170560278864</v>
       </c>
       <c r="K4">
-        <v>1.032987749237733</v>
+        <v>1.033946244942257</v>
       </c>
       <c r="L4">
-        <v>1.034316474539934</v>
+        <v>1.054508292801576</v>
       </c>
       <c r="M4">
-        <v>1.040604502195629</v>
+        <v>1.059337059869827</v>
       </c>
       <c r="N4">
-        <v>1.013308812496065</v>
+        <v>1.014614475555416</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.009677734797164</v>
+        <v>1.027327659939537</v>
       </c>
       <c r="D5">
-        <v>1.023783407837727</v>
+        <v>1.031591311554151</v>
       </c>
       <c r="E5">
-        <v>1.02564031700956</v>
+        <v>1.052338050052227</v>
       </c>
       <c r="F5">
-        <v>1.032010332115495</v>
+        <v>1.057179044498202</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044275628609956</v>
+        <v>1.034690457301479</v>
       </c>
       <c r="J5">
-        <v>1.028388404133948</v>
+        <v>1.03180322438865</v>
       </c>
       <c r="K5">
-        <v>1.033385395067274</v>
+        <v>1.034034455003585</v>
       </c>
       <c r="L5">
-        <v>1.035221732801087</v>
+        <v>1.05473049726121</v>
       </c>
       <c r="M5">
-        <v>1.041521869354104</v>
+        <v>1.059559969848356</v>
       </c>
       <c r="N5">
-        <v>1.013452111454644</v>
+        <v>1.014646868621032</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.009828627620305</v>
+        <v>1.027360544887877</v>
       </c>
       <c r="D6">
-        <v>1.023887578574788</v>
+        <v>1.031614923496963</v>
       </c>
       <c r="E6">
-        <v>1.025830337960137</v>
+        <v>1.052384035132376</v>
       </c>
       <c r="F6">
-        <v>1.032202050330825</v>
+        <v>1.057225101999744</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044312416187798</v>
+        <v>1.034696635471475</v>
       </c>
       <c r="J6">
-        <v>1.028460412788034</v>
+        <v>1.031819613204398</v>
       </c>
       <c r="K6">
-        <v>1.033451876714988</v>
+        <v>1.034049262028386</v>
       </c>
       <c r="L6">
-        <v>1.035373213335411</v>
+        <v>1.05476781657277</v>
       </c>
       <c r="M6">
-        <v>1.041675359305583</v>
+        <v>1.059597405598378</v>
       </c>
       <c r="N6">
-        <v>1.013476072988212</v>
+        <v>1.014652306599869</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.008788008128839</v>
+        <v>1.027134465257029</v>
       </c>
       <c r="D7">
-        <v>1.023169384768809</v>
+        <v>1.031452599047299</v>
       </c>
       <c r="E7">
-        <v>1.02452028381361</v>
+        <v>1.052067942351329</v>
       </c>
       <c r="F7">
-        <v>1.030880194100126</v>
+        <v>1.05690849953694</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044058024609603</v>
+        <v>1.034654078917912</v>
       </c>
       <c r="J7">
-        <v>1.027963546762534</v>
+        <v>1.031706907365252</v>
       </c>
       <c r="K7">
-        <v>1.032993081749224</v>
+        <v>1.033947423865431</v>
       </c>
       <c r="L7">
-        <v>1.034328605417943</v>
+        <v>1.054511261223807</v>
       </c>
       <c r="M7">
-        <v>1.040616796463777</v>
+        <v>1.059340037854601</v>
       </c>
       <c r="N7">
-        <v>1.013310733919766</v>
+        <v>1.014614908457153</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.004360589108454</v>
+        <v>1.026190585264151</v>
       </c>
       <c r="D8">
-        <v>1.020119293758633</v>
+        <v>1.030775011607819</v>
       </c>
       <c r="E8">
-        <v>1.01895642942294</v>
+        <v>1.05074945871169</v>
       </c>
       <c r="F8">
-        <v>1.02526372333078</v>
+        <v>1.055587594734494</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042958525558769</v>
+        <v>1.034474353214678</v>
       </c>
       <c r="J8">
-        <v>1.025843051710199</v>
+        <v>1.031235493188343</v>
       </c>
       <c r="K8">
-        <v>1.03103346202455</v>
+        <v>1.033521210221983</v>
       </c>
       <c r="L8">
-        <v>1.02988560303356</v>
+        <v>1.053440386888278</v>
       </c>
       <c r="M8">
-        <v>1.036112019127875</v>
+        <v>1.05826547604773</v>
       </c>
       <c r="N8">
-        <v>1.012605057777727</v>
+        <v>1.014458454256484</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9962476989065918</v>
+        <v>1.024531600444338</v>
       </c>
       <c r="D9">
-        <v>1.014553783810518</v>
+        <v>1.029584533330137</v>
       </c>
       <c r="E9">
-        <v>1.008794998950441</v>
+        <v>1.048436511458466</v>
       </c>
       <c r="F9">
-        <v>1.014997063733825</v>
+        <v>1.053269291429451</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040879800388501</v>
+        <v>1.034150737628164</v>
       </c>
       <c r="J9">
-        <v>1.021933659984296</v>
+        <v>1.030403662016392</v>
       </c>
       <c r="K9">
-        <v>1.027415068003177</v>
+        <v>1.032768182201057</v>
       </c>
       <c r="L9">
-        <v>1.021746977036499</v>
+        <v>1.051559046402411</v>
       </c>
       <c r="M9">
-        <v>1.027851421347402</v>
+        <v>1.056376544885564</v>
       </c>
       <c r="N9">
-        <v>1.01130393812108</v>
+        <v>1.014182275643378</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9906119086160433</v>
+        <v>1.023428579052497</v>
       </c>
       <c r="D10">
-        <v>1.010705808703418</v>
+        <v>1.028793351200279</v>
       </c>
       <c r="E10">
-        <v>1.001755074512695</v>
+        <v>1.046901611621445</v>
       </c>
       <c r="F10">
-        <v>1.007878450702068</v>
+        <v>1.051730094127848</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039394099330913</v>
+        <v>1.033930383499079</v>
       </c>
       <c r="J10">
-        <v>1.01920301957522</v>
+        <v>1.029848410034663</v>
       </c>
       <c r="K10">
-        <v>1.024884419918509</v>
+        <v>1.032264897442128</v>
       </c>
       <c r="L10">
-        <v>1.016092712687076</v>
+        <v>1.050308706915235</v>
       </c>
       <c r="M10">
-        <v>1.022106899506305</v>
+        <v>1.05512041657066</v>
       </c>
       <c r="N10">
-        <v>1.010395122966716</v>
+        <v>1.013997853630154</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9881133962843117</v>
+        <v>1.022951685838917</v>
       </c>
       <c r="D11">
-        <v>1.009004741380643</v>
+        <v>1.028451368762979</v>
       </c>
       <c r="E11">
-        <v>0.9986376180724653</v>
+        <v>1.046238675423942</v>
       </c>
       <c r="F11">
-        <v>1.004724868722599</v>
+        <v>1.05106512595046</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038725911773849</v>
+        <v>1.033833882537338</v>
       </c>
       <c r="J11">
-        <v>1.017989171118371</v>
+        <v>1.029607828652474</v>
       </c>
       <c r="K11">
-        <v>1.023758816226061</v>
+        <v>1.032046683800485</v>
       </c>
       <c r="L11">
-        <v>1.013585272736268</v>
+        <v>1.049768232938604</v>
       </c>
       <c r="M11">
-        <v>1.019558227646606</v>
+        <v>1.054577264574291</v>
       </c>
       <c r="N11">
-        <v>1.009991143243569</v>
+        <v>1.013917930090273</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9871762106795455</v>
+        <v>1.022774656859983</v>
       </c>
       <c r="D12">
-        <v>1.00836745110638</v>
+        <v>1.02832443391635</v>
       </c>
       <c r="E12">
-        <v>0.9974687170253517</v>
+        <v>1.04599268596476</v>
       </c>
       <c r="F12">
-        <v>1.003542238198011</v>
+        <v>1.050818356110725</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038473874224679</v>
+        <v>1.033797875258975</v>
       </c>
       <c r="J12">
-        <v>1.017533389838767</v>
+        <v>1.029518444096269</v>
       </c>
       <c r="K12">
-        <v>1.023336080736719</v>
+        <v>1.031965587436845</v>
       </c>
       <c r="L12">
-        <v>1.012644573632966</v>
+        <v>1.04956761792305</v>
       </c>
       <c r="M12">
-        <v>1.018601887720462</v>
+        <v>1.054375629179576</v>
       </c>
       <c r="N12">
-        <v>1.009839458726582</v>
+        <v>1.013888233183918</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.987377659626534</v>
+        <v>1.022812625151264</v>
       </c>
       <c r="D13">
-        <v>1.008504401443102</v>
+        <v>1.028351657649796</v>
       </c>
       <c r="E13">
-        <v>0.9977199545466855</v>
+        <v>1.046045439997979</v>
       </c>
       <c r="F13">
-        <v>1.003796434844237</v>
+        <v>1.05087127869564</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038528112816392</v>
+        <v>1.033805606286374</v>
       </c>
       <c r="J13">
-        <v>1.017631381335443</v>
+        <v>1.029537618360276</v>
       </c>
       <c r="K13">
-        <v>1.023426971342599</v>
+        <v>1.031982984768522</v>
       </c>
       <c r="L13">
-        <v>1.012846786157304</v>
+        <v>1.049610644121683</v>
       </c>
       <c r="M13">
-        <v>1.018807470021871</v>
+        <v>1.054418875411649</v>
       </c>
       <c r="N13">
-        <v>1.009872070220543</v>
+        <v>1.013894603705551</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9880361167254632</v>
+        <v>1.022937050305454</v>
       </c>
       <c r="D14">
-        <v>1.008952174895363</v>
+        <v>1.028440874388293</v>
       </c>
       <c r="E14">
-        <v>0.998541222820752</v>
+        <v>1.046218336657837</v>
       </c>
       <c r="F14">
-        <v>1.004627344943136</v>
+        <v>1.051044723199766</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038705157304573</v>
+        <v>1.033830909476102</v>
       </c>
       <c r="J14">
-        <v>1.017951597192529</v>
+        <v>1.029600440537614</v>
       </c>
       <c r="K14">
-        <v>1.023723968291486</v>
+        <v>1.032039981201855</v>
       </c>
       <c r="L14">
-        <v>1.013507707130796</v>
+        <v>1.049751647153973</v>
       </c>
       <c r="M14">
-        <v>1.019479375819375</v>
+        <v>1.05456059496728</v>
       </c>
       <c r="N14">
-        <v>1.009978638517948</v>
+        <v>1.013915475531159</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9884405925562489</v>
+        <v>1.023013727433827</v>
       </c>
       <c r="D15">
-        <v>1.00922733614443</v>
+        <v>1.028495856097637</v>
       </c>
       <c r="E15">
-        <v>0.9990457666552304</v>
+        <v>1.046324897767956</v>
       </c>
       <c r="F15">
-        <v>1.005137788161733</v>
+        <v>1.051151618463887</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038813727736512</v>
+        <v>1.033846478090109</v>
       </c>
       <c r="J15">
-        <v>1.018148237472347</v>
+        <v>1.029639144484647</v>
       </c>
       <c r="K15">
-        <v>1.023906338744904</v>
+        <v>1.032075093041726</v>
       </c>
       <c r="L15">
-        <v>1.013913673058883</v>
+        <v>1.049838542505977</v>
       </c>
       <c r="M15">
-        <v>1.019892066659849</v>
+        <v>1.054647928398264</v>
       </c>
       <c r="N15">
-        <v>1.010044081202588</v>
+        <v>1.013928334072705</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9907764684243549</v>
+        <v>1.023460244262937</v>
       </c>
       <c r="D16">
-        <v>1.010817951509687</v>
+        <v>1.028816060342687</v>
       </c>
       <c r="E16">
-        <v>1.001960466966731</v>
+        <v>1.04694564413935</v>
       </c>
       <c r="F16">
-        <v>1.008086197230993</v>
+        <v>1.051774257904227</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039437911812047</v>
+        <v>1.03393676512207</v>
       </c>
       <c r="J16">
-        <v>1.019282900931863</v>
+        <v>1.029864373491245</v>
       </c>
       <c r="K16">
-        <v>1.024958481165758</v>
+        <v>1.032279373594557</v>
       </c>
       <c r="L16">
-        <v>1.016257840609092</v>
+        <v>1.050344596113697</v>
       </c>
       <c r="M16">
-        <v>1.022274718349742</v>
+        <v>1.055156479898293</v>
       </c>
       <c r="N16">
-        <v>1.010421708628931</v>
+        <v>1.014003156503197</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.992225859746053</v>
+        <v>1.023740527182634</v>
       </c>
       <c r="D17">
-        <v>1.011806229648198</v>
+        <v>1.029017079170469</v>
       </c>
       <c r="E17">
-        <v>1.003769894674701</v>
+        <v>1.047335474144239</v>
       </c>
       <c r="F17">
-        <v>1.009916218234735</v>
+        <v>1.052165229630685</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039822714448649</v>
+        <v>1.03399310945905</v>
       </c>
       <c r="J17">
-        <v>1.019986099968554</v>
+        <v>1.030005613389438</v>
       </c>
       <c r="K17">
-        <v>1.025610371812196</v>
+        <v>1.032407437104003</v>
       </c>
       <c r="L17">
-        <v>1.017712145289466</v>
+        <v>1.050662280324783</v>
       </c>
       <c r="M17">
-        <v>1.023752585809775</v>
+        <v>1.055475685155424</v>
       </c>
       <c r="N17">
-        <v>1.010655745223378</v>
+        <v>1.014050072830441</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9930656790556325</v>
+        <v>1.023904081036266</v>
       </c>
       <c r="D18">
-        <v>1.012379325267422</v>
+        <v>1.029134388269791</v>
       </c>
       <c r="E18">
-        <v>1.004818673052176</v>
+        <v>1.047563017933602</v>
       </c>
       <c r="F18">
-        <v>1.010976810426658</v>
+        <v>1.052393422846753</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040044771321486</v>
+        <v>1.034025869313559</v>
       </c>
       <c r="J18">
-        <v>1.020393240800059</v>
+        <v>1.030087981333639</v>
       </c>
       <c r="K18">
-        <v>1.02598774278098</v>
+        <v>1.032482106514238</v>
       </c>
       <c r="L18">
-        <v>1.018554745097928</v>
+        <v>1.050847669925735</v>
       </c>
       <c r="M18">
-        <v>1.024608722130777</v>
+        <v>1.055661945409939</v>
       </c>
       <c r="N18">
-        <v>1.010791249932621</v>
+        <v>1.014077431781349</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9933510996115298</v>
+        <v>1.023959860416812</v>
       </c>
       <c r="D19">
-        <v>1.012574173677459</v>
+        <v>1.029174397460584</v>
       </c>
       <c r="E19">
-        <v>1.005175171056781</v>
+        <v>1.047640632015394</v>
       </c>
       <c r="F19">
-        <v>1.011337303141699</v>
+        <v>1.052471255561103</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040120084389544</v>
+        <v>1.034037021773931</v>
       </c>
       <c r="J19">
-        <v>1.020531557712363</v>
+        <v>1.030116064111654</v>
       </c>
       <c r="K19">
-        <v>1.026115935047914</v>
+        <v>1.032507562090941</v>
       </c>
       <c r="L19">
-        <v>1.018841100925128</v>
+        <v>1.050910898180702</v>
       </c>
       <c r="M19">
-        <v>1.024899658478905</v>
+        <v>1.055725467725279</v>
       </c>
       <c r="N19">
-        <v>1.010837284783229</v>
+        <v>1.014086759353289</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9920709342969674</v>
+        <v>1.023710448268613</v>
       </c>
       <c r="D20">
-        <v>1.011700544702193</v>
+        <v>1.028995505717804</v>
       </c>
       <c r="E20">
-        <v>1.003576449894795</v>
+        <v>1.047293632251876</v>
       </c>
       <c r="F20">
-        <v>1.00972058447703</v>
+        <v>1.052123266950438</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039781676933908</v>
+        <v>1.033987075084676</v>
       </c>
       <c r="J20">
-        <v>1.019910967325015</v>
+        <v>1.029990461217737</v>
       </c>
       <c r="K20">
-        <v>1.025540727644028</v>
+        <v>1.032393699975512</v>
       </c>
       <c r="L20">
-        <v>1.017556701916594</v>
+        <v>1.050628186521115</v>
       </c>
       <c r="M20">
-        <v>1.023594635829155</v>
+        <v>1.055441429868635</v>
       </c>
       <c r="N20">
-        <v>1.010630739655691</v>
+        <v>1.014045039826979</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9878424726797397</v>
+        <v>1.022900407136299</v>
       </c>
       <c r="D21">
-        <v>1.008820468549649</v>
+        <v>1.028414599710118</v>
       </c>
       <c r="E21">
-        <v>0.9982996863711706</v>
+        <v>1.046167415863016</v>
       </c>
       <c r="F21">
-        <v>1.004382977816773</v>
+        <v>1.050993641784692</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038653129087055</v>
+        <v>1.033823462798555</v>
       </c>
       <c r="J21">
-        <v>1.017857438447612</v>
+        <v>1.029581941567956</v>
       </c>
       <c r="K21">
-        <v>1.023636639375435</v>
+        <v>1.032023198325642</v>
       </c>
       <c r="L21">
-        <v>1.013313343475887</v>
+        <v>1.049710121371331</v>
       </c>
       <c r="M21">
-        <v>1.0192817864117</v>
+        <v>1.05451885889337</v>
       </c>
       <c r="N21">
-        <v>1.009947302241964</v>
+        <v>1.013909329564457</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9851308583795465</v>
+        <v>1.022391741760162</v>
       </c>
       <c r="D22">
-        <v>1.006978080271652</v>
+        <v>1.028049898029101</v>
       </c>
       <c r="E22">
-        <v>0.9949183870101849</v>
+        <v>1.045460792397</v>
       </c>
       <c r="F22">
-        <v>1.000961624315957</v>
+        <v>1.050284726947573</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037921274812345</v>
+        <v>1.033719653271877</v>
       </c>
       <c r="J22">
-        <v>1.016537835725478</v>
+        <v>1.029324962806759</v>
       </c>
       <c r="K22">
-        <v>1.022412556022609</v>
+        <v>1.031790006227184</v>
       </c>
       <c r="L22">
-        <v>1.010591188300377</v>
+        <v>1.049133714226052</v>
       </c>
       <c r="M22">
-        <v>1.016514055280725</v>
+        <v>1.053939470446578</v>
       </c>
       <c r="N22">
-        <v>1.009508145360417</v>
+        <v>1.013823946956634</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9865734961464404</v>
+        <v>1.022661333645047</v>
       </c>
       <c r="D23">
-        <v>1.007957827097916</v>
+        <v>1.02824318178581</v>
       </c>
       <c r="E23">
-        <v>0.9967170992273277</v>
+        <v>1.045835246753177</v>
       </c>
       <c r="F23">
-        <v>1.002781741385587</v>
+        <v>1.050660410011139</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038311394827503</v>
+        <v>1.033774773545346</v>
       </c>
       <c r="J23">
-        <v>1.01724014224231</v>
+        <v>1.029461203689837</v>
       </c>
       <c r="K23">
-        <v>1.02306407091654</v>
+        <v>1.03191364841439</v>
       </c>
       <c r="L23">
-        <v>1.012039546084343</v>
+        <v>1.049439200739061</v>
       </c>
       <c r="M23">
-        <v>1.017986753171655</v>
+        <v>1.054246551425188</v>
       </c>
       <c r="N23">
-        <v>1.009741866788841</v>
+        <v>1.013869215081031</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9921409556739393</v>
+        <v>1.023724039420417</v>
       </c>
       <c r="D24">
-        <v>1.011748309519651</v>
+        <v>1.029005253652806</v>
       </c>
       <c r="E24">
-        <v>1.003663879713495</v>
+        <v>1.047312538299873</v>
       </c>
       <c r="F24">
-        <v>1.009809004012004</v>
+        <v>1.052142227628339</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039800227404709</v>
+        <v>1.033989802082744</v>
       </c>
       <c r="J24">
-        <v>1.019944925862806</v>
+        <v>1.029997307878097</v>
       </c>
       <c r="K24">
-        <v>1.025572205690955</v>
+        <v>1.032399907278831</v>
       </c>
       <c r="L24">
-        <v>1.017626957580483</v>
+        <v>1.050643591766167</v>
       </c>
       <c r="M24">
-        <v>1.023666024761518</v>
+        <v>1.0554569081321</v>
       </c>
       <c r="N24">
-        <v>1.010642041696669</v>
+        <v>1.014047314044889</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9983837463668598</v>
+        <v>1.024959972585346</v>
       </c>
       <c r="D25">
-        <v>1.016016149058689</v>
+        <v>1.029891872820123</v>
       </c>
       <c r="E25">
-        <v>1.011466837676772</v>
+        <v>1.049033224374845</v>
       </c>
       <c r="F25">
-        <v>1.017697602004073</v>
+        <v>1.053867517539299</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041434429672134</v>
+        <v>1.034235215525556</v>
       </c>
       <c r="J25">
-        <v>1.022965626590526</v>
+        <v>1.030618838296126</v>
       </c>
       <c r="K25">
-        <v>1.02837082043209</v>
+        <v>1.032963086168237</v>
       </c>
       <c r="L25">
-        <v>1.023889715983853</v>
+        <v>1.052044738010013</v>
       </c>
       <c r="M25">
-        <v>1.030027259890235</v>
+        <v>1.056864327715711</v>
       </c>
       <c r="N25">
-        <v>1.011647402588287</v>
+        <v>1.014253729587672</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_180/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_180/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.025947876515066</v>
+        <v>1.003200297159762</v>
       </c>
       <c r="D2">
-        <v>1.030600807718336</v>
+        <v>1.019321448401344</v>
       </c>
       <c r="E2">
-        <v>1.050410729326888</v>
+        <v>1.017500711247179</v>
       </c>
       <c r="F2">
-        <v>1.055248167865698</v>
+        <v>1.02379361471455</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034427613586252</v>
+        <v>1.042666052569974</v>
       </c>
       <c r="J2">
-        <v>1.031114052051779</v>
+        <v>1.025285707419481</v>
       </c>
       <c r="K2">
-        <v>1.033411348109769</v>
+        <v>1.030518010709965</v>
       </c>
       <c r="L2">
-        <v>1.053165082743529</v>
+        <v>1.028721500786566</v>
       </c>
       <c r="M2">
-        <v>1.05798914817972</v>
+        <v>1.034931127675718</v>
       </c>
       <c r="N2">
-        <v>1.014418142644217</v>
+        <v>1.012419569445475</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.026666382971807</v>
+        <v>1.00660918293268</v>
       </c>
       <c r="D3">
-        <v>1.0311165512366</v>
+        <v>1.021667248109567</v>
       </c>
       <c r="E3">
-        <v>1.051413850396665</v>
+        <v>1.021780286592525</v>
       </c>
       <c r="F3">
-        <v>1.056253265434431</v>
+        <v>1.028114773616055</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034565360641614</v>
+        <v>1.043520310013861</v>
       </c>
       <c r="J3">
-        <v>1.031473300402063</v>
+        <v>1.026921282261324</v>
       </c>
       <c r="K3">
-        <v>1.033736266708319</v>
+        <v>1.032030199929488</v>
       </c>
       <c r="L3">
-        <v>1.053980153303403</v>
+        <v>1.03214186748443</v>
       </c>
       <c r="M3">
-        <v>1.058807160298519</v>
+        <v>1.038400127516431</v>
       </c>
       <c r="N3">
-        <v>1.014537384150392</v>
+        <v>1.01296388964208</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.027131849328898</v>
+        <v>1.008775922710502</v>
       </c>
       <c r="D4">
-        <v>1.031450720881166</v>
+        <v>1.02316104679686</v>
       </c>
       <c r="E4">
-        <v>1.052064285558571</v>
+        <v>1.024505074816682</v>
       </c>
       <c r="F4">
-        <v>1.056904836685662</v>
+        <v>1.030864846716586</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.034653585377006</v>
+        <v>1.044055060797429</v>
       </c>
       <c r="J4">
-        <v>1.03170560278864</v>
+        <v>1.02795777272278</v>
       </c>
       <c r="K4">
-        <v>1.033946244942257</v>
+        <v>1.032987749237733</v>
       </c>
       <c r="L4">
-        <v>1.054508292801576</v>
+        <v>1.034316474539934</v>
       </c>
       <c r="M4">
-        <v>1.059337059869827</v>
+        <v>1.040604502195629</v>
       </c>
       <c r="N4">
-        <v>1.014614475555416</v>
+        <v>1.013308812496065</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.027327659939537</v>
+        <v>1.009677734797164</v>
       </c>
       <c r="D5">
-        <v>1.031591311554151</v>
+        <v>1.023783407837727</v>
       </c>
       <c r="E5">
-        <v>1.052338050052227</v>
+        <v>1.02564031700956</v>
       </c>
       <c r="F5">
-        <v>1.057179044498202</v>
+        <v>1.032010332115495</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034690457301479</v>
+        <v>1.044275628609956</v>
       </c>
       <c r="J5">
-        <v>1.03180322438865</v>
+        <v>1.028388404133948</v>
       </c>
       <c r="K5">
-        <v>1.034034455003585</v>
+        <v>1.033385395067274</v>
       </c>
       <c r="L5">
-        <v>1.05473049726121</v>
+        <v>1.035221732801087</v>
       </c>
       <c r="M5">
-        <v>1.059559969848356</v>
+        <v>1.041521869354103</v>
       </c>
       <c r="N5">
-        <v>1.014646868621032</v>
+        <v>1.013452111454644</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.027360544887877</v>
+        <v>1.009828627620305</v>
       </c>
       <c r="D6">
-        <v>1.031614923496963</v>
+        <v>1.023887578574789</v>
       </c>
       <c r="E6">
-        <v>1.052384035132376</v>
+        <v>1.025830337960137</v>
       </c>
       <c r="F6">
-        <v>1.057225101999744</v>
+        <v>1.032202050330825</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034696635471475</v>
+        <v>1.044312416187798</v>
       </c>
       <c r="J6">
-        <v>1.031819613204398</v>
+        <v>1.028460412788034</v>
       </c>
       <c r="K6">
-        <v>1.034049262028386</v>
+        <v>1.033451876714989</v>
       </c>
       <c r="L6">
-        <v>1.05476781657277</v>
+        <v>1.035373213335411</v>
       </c>
       <c r="M6">
-        <v>1.059597405598378</v>
+        <v>1.041675359305583</v>
       </c>
       <c r="N6">
-        <v>1.014652306599869</v>
+        <v>1.013476072988212</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.027134465257029</v>
+        <v>1.00878800812884</v>
       </c>
       <c r="D7">
-        <v>1.031452599047299</v>
+        <v>1.02316938476881</v>
       </c>
       <c r="E7">
-        <v>1.052067942351329</v>
+        <v>1.02452028381361</v>
       </c>
       <c r="F7">
-        <v>1.05690849953694</v>
+        <v>1.030880194100127</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034654078917912</v>
+        <v>1.044058024609604</v>
       </c>
       <c r="J7">
-        <v>1.031706907365252</v>
+        <v>1.027963546762534</v>
       </c>
       <c r="K7">
-        <v>1.033947423865431</v>
+        <v>1.032993081749224</v>
       </c>
       <c r="L7">
-        <v>1.054511261223807</v>
+        <v>1.034328605417944</v>
       </c>
       <c r="M7">
-        <v>1.059340037854601</v>
+        <v>1.040616796463778</v>
       </c>
       <c r="N7">
-        <v>1.014614908457153</v>
+        <v>1.013310733919766</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.026190585264151</v>
+        <v>1.004360589108455</v>
       </c>
       <c r="D8">
-        <v>1.030775011607819</v>
+        <v>1.020119293758634</v>
       </c>
       <c r="E8">
-        <v>1.05074945871169</v>
+        <v>1.01895642942294</v>
       </c>
       <c r="F8">
-        <v>1.055587594734494</v>
+        <v>1.02526372333078</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034474353214678</v>
+        <v>1.042958525558769</v>
       </c>
       <c r="J8">
-        <v>1.031235493188343</v>
+        <v>1.0258430517102</v>
       </c>
       <c r="K8">
-        <v>1.033521210221983</v>
+        <v>1.031033462024551</v>
       </c>
       <c r="L8">
-        <v>1.053440386888278</v>
+        <v>1.02988560303356</v>
       </c>
       <c r="M8">
-        <v>1.05826547604773</v>
+        <v>1.036112019127875</v>
       </c>
       <c r="N8">
-        <v>1.014458454256484</v>
+        <v>1.012605057777727</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.024531600444338</v>
+        <v>0.9962476989065914</v>
       </c>
       <c r="D9">
-        <v>1.029584533330137</v>
+        <v>1.014553783810518</v>
       </c>
       <c r="E9">
-        <v>1.048436511458466</v>
+        <v>1.008794998950441</v>
       </c>
       <c r="F9">
-        <v>1.053269291429451</v>
+        <v>1.014997063733825</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034150737628164</v>
+        <v>1.0408798003885</v>
       </c>
       <c r="J9">
-        <v>1.030403662016392</v>
+        <v>1.021933659984296</v>
       </c>
       <c r="K9">
-        <v>1.032768182201057</v>
+        <v>1.027415068003176</v>
       </c>
       <c r="L9">
-        <v>1.051559046402411</v>
+        <v>1.021746977036499</v>
       </c>
       <c r="M9">
-        <v>1.056376544885564</v>
+        <v>1.027851421347402</v>
       </c>
       <c r="N9">
-        <v>1.014182275643378</v>
+        <v>1.01130393812108</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.023428579052497</v>
+        <v>0.9906119086160432</v>
       </c>
       <c r="D10">
-        <v>1.028793351200279</v>
+        <v>1.010705808703418</v>
       </c>
       <c r="E10">
-        <v>1.046901611621445</v>
+        <v>1.001755074512695</v>
       </c>
       <c r="F10">
-        <v>1.051730094127848</v>
+        <v>1.007878450702068</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033930383499079</v>
+        <v>1.039394099330913</v>
       </c>
       <c r="J10">
-        <v>1.029848410034663</v>
+        <v>1.01920301957522</v>
       </c>
       <c r="K10">
-        <v>1.032264897442128</v>
+        <v>1.024884419918509</v>
       </c>
       <c r="L10">
-        <v>1.050308706915235</v>
+        <v>1.016092712687075</v>
       </c>
       <c r="M10">
-        <v>1.05512041657066</v>
+        <v>1.022106899506305</v>
       </c>
       <c r="N10">
-        <v>1.013997853630154</v>
+        <v>1.010395122966716</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.022951685838917</v>
+        <v>0.9881133962843111</v>
       </c>
       <c r="D11">
-        <v>1.028451368762979</v>
+        <v>1.009004741380642</v>
       </c>
       <c r="E11">
-        <v>1.046238675423942</v>
+        <v>0.9986376180724651</v>
       </c>
       <c r="F11">
-        <v>1.05106512595046</v>
+        <v>1.004724868722598</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033833882537338</v>
+        <v>1.038725911773849</v>
       </c>
       <c r="J11">
-        <v>1.029607828652474</v>
+        <v>1.01798917111837</v>
       </c>
       <c r="K11">
-        <v>1.032046683800485</v>
+        <v>1.02375881622606</v>
       </c>
       <c r="L11">
-        <v>1.049768232938604</v>
+        <v>1.013585272736268</v>
       </c>
       <c r="M11">
-        <v>1.054577264574291</v>
+        <v>1.019558227646605</v>
       </c>
       <c r="N11">
-        <v>1.013917930090273</v>
+        <v>1.009991143243569</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.022774656859983</v>
+        <v>0.9871762106795455</v>
       </c>
       <c r="D12">
-        <v>1.02832443391635</v>
+        <v>1.00836745110638</v>
       </c>
       <c r="E12">
-        <v>1.04599268596476</v>
+        <v>0.9974687170253516</v>
       </c>
       <c r="F12">
-        <v>1.050818356110725</v>
+        <v>1.003542238198011</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033797875258975</v>
+        <v>1.038473874224679</v>
       </c>
       <c r="J12">
-        <v>1.029518444096269</v>
+        <v>1.017533389838767</v>
       </c>
       <c r="K12">
-        <v>1.031965587436845</v>
+        <v>1.023336080736719</v>
       </c>
       <c r="L12">
-        <v>1.04956761792305</v>
+        <v>1.012644573632966</v>
       </c>
       <c r="M12">
-        <v>1.054375629179576</v>
+        <v>1.018601887720461</v>
       </c>
       <c r="N12">
-        <v>1.013888233183918</v>
+        <v>1.009839458726582</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.022812625151264</v>
+        <v>0.9873776596265342</v>
       </c>
       <c r="D13">
-        <v>1.028351657649796</v>
+        <v>1.008504401443102</v>
       </c>
       <c r="E13">
-        <v>1.046045439997979</v>
+        <v>0.9977199545466856</v>
       </c>
       <c r="F13">
-        <v>1.05087127869564</v>
+        <v>1.003796434844237</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033805606286374</v>
+        <v>1.038528112816392</v>
       </c>
       <c r="J13">
-        <v>1.029537618360276</v>
+        <v>1.017631381335443</v>
       </c>
       <c r="K13">
-        <v>1.031982984768522</v>
+        <v>1.023426971342599</v>
       </c>
       <c r="L13">
-        <v>1.049610644121683</v>
+        <v>1.012846786157304</v>
       </c>
       <c r="M13">
-        <v>1.054418875411649</v>
+        <v>1.018807470021871</v>
       </c>
       <c r="N13">
-        <v>1.013894603705551</v>
+        <v>1.009872070220543</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.022937050305454</v>
+        <v>0.9880361167254627</v>
       </c>
       <c r="D14">
-        <v>1.028440874388293</v>
+        <v>1.008952174895363</v>
       </c>
       <c r="E14">
-        <v>1.046218336657837</v>
+        <v>0.9985412228207521</v>
       </c>
       <c r="F14">
-        <v>1.051044723199766</v>
+        <v>1.004627344943136</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033830909476102</v>
+        <v>1.038705157304573</v>
       </c>
       <c r="J14">
-        <v>1.029600440537614</v>
+        <v>1.017951597192529</v>
       </c>
       <c r="K14">
-        <v>1.032039981201855</v>
+        <v>1.023723968291486</v>
       </c>
       <c r="L14">
-        <v>1.049751647153973</v>
+        <v>1.013507707130796</v>
       </c>
       <c r="M14">
-        <v>1.05456059496728</v>
+        <v>1.019479375819375</v>
       </c>
       <c r="N14">
-        <v>1.013915475531159</v>
+        <v>1.009978638517948</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.023013727433827</v>
+        <v>0.9884405925562495</v>
       </c>
       <c r="D15">
-        <v>1.028495856097637</v>
+        <v>1.00922733614443</v>
       </c>
       <c r="E15">
-        <v>1.046324897767956</v>
+        <v>0.999045766655231</v>
       </c>
       <c r="F15">
-        <v>1.051151618463887</v>
+        <v>1.005137788161734</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033846478090109</v>
+        <v>1.038813727736512</v>
       </c>
       <c r="J15">
-        <v>1.029639144484647</v>
+        <v>1.018148237472347</v>
       </c>
       <c r="K15">
-        <v>1.032075093041726</v>
+        <v>1.023906338744905</v>
       </c>
       <c r="L15">
-        <v>1.049838542505977</v>
+        <v>1.013913673058883</v>
       </c>
       <c r="M15">
-        <v>1.054647928398264</v>
+        <v>1.019892066659849</v>
       </c>
       <c r="N15">
-        <v>1.013928334072705</v>
+        <v>1.010044081202588</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.023460244262937</v>
+        <v>0.9907764684243544</v>
       </c>
       <c r="D16">
-        <v>1.028816060342687</v>
+        <v>1.010817951509687</v>
       </c>
       <c r="E16">
-        <v>1.04694564413935</v>
+        <v>1.001960466966731</v>
       </c>
       <c r="F16">
-        <v>1.051774257904227</v>
+        <v>1.008086197230992</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03393676512207</v>
+        <v>1.039437911812047</v>
       </c>
       <c r="J16">
-        <v>1.029864373491245</v>
+        <v>1.019282900931863</v>
       </c>
       <c r="K16">
-        <v>1.032279373594557</v>
+        <v>1.024958481165758</v>
       </c>
       <c r="L16">
-        <v>1.050344596113697</v>
+        <v>1.016257840609091</v>
       </c>
       <c r="M16">
-        <v>1.055156479898293</v>
+        <v>1.022274718349742</v>
       </c>
       <c r="N16">
-        <v>1.014003156503197</v>
+        <v>1.010421708628931</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.023740527182634</v>
+        <v>0.9922258597460529</v>
       </c>
       <c r="D17">
-        <v>1.029017079170469</v>
+        <v>1.011806229648198</v>
       </c>
       <c r="E17">
-        <v>1.047335474144239</v>
+        <v>1.003769894674701</v>
       </c>
       <c r="F17">
-        <v>1.052165229630685</v>
+        <v>1.009916218234735</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03399310945905</v>
+        <v>1.039822714448649</v>
       </c>
       <c r="J17">
-        <v>1.030005613389438</v>
+        <v>1.019986099968554</v>
       </c>
       <c r="K17">
-        <v>1.032407437104003</v>
+        <v>1.025610371812196</v>
       </c>
       <c r="L17">
-        <v>1.050662280324783</v>
+        <v>1.017712145289466</v>
       </c>
       <c r="M17">
-        <v>1.055475685155424</v>
+        <v>1.023752585809775</v>
       </c>
       <c r="N17">
-        <v>1.014050072830441</v>
+        <v>1.010655745223378</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.023904081036266</v>
+        <v>0.9930656790556323</v>
       </c>
       <c r="D18">
-        <v>1.029134388269791</v>
+        <v>1.012379325267422</v>
       </c>
       <c r="E18">
-        <v>1.047563017933602</v>
+        <v>1.004818673052176</v>
       </c>
       <c r="F18">
-        <v>1.052393422846753</v>
+        <v>1.010976810426658</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034025869313559</v>
+        <v>1.040044771321486</v>
       </c>
       <c r="J18">
-        <v>1.030087981333639</v>
+        <v>1.020393240800059</v>
       </c>
       <c r="K18">
-        <v>1.032482106514238</v>
+        <v>1.02598774278098</v>
       </c>
       <c r="L18">
-        <v>1.050847669925735</v>
+        <v>1.018554745097928</v>
       </c>
       <c r="M18">
-        <v>1.055661945409939</v>
+        <v>1.024608722130777</v>
       </c>
       <c r="N18">
-        <v>1.014077431781349</v>
+        <v>1.010791249932621</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.023959860416812</v>
+        <v>0.9933510996115298</v>
       </c>
       <c r="D19">
-        <v>1.029174397460584</v>
+        <v>1.01257417367746</v>
       </c>
       <c r="E19">
-        <v>1.047640632015394</v>
+        <v>1.005175171056781</v>
       </c>
       <c r="F19">
-        <v>1.052471255561103</v>
+        <v>1.011337303141699</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034037021773931</v>
+        <v>1.040120084389544</v>
       </c>
       <c r="J19">
-        <v>1.030116064111654</v>
+        <v>1.020531557712363</v>
       </c>
       <c r="K19">
-        <v>1.032507562090941</v>
+        <v>1.026115935047915</v>
       </c>
       <c r="L19">
-        <v>1.050910898180702</v>
+        <v>1.018841100925128</v>
       </c>
       <c r="M19">
-        <v>1.055725467725279</v>
+        <v>1.024899658478905</v>
       </c>
       <c r="N19">
-        <v>1.014086759353289</v>
+        <v>1.010837284783229</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.023710448268613</v>
+        <v>0.9920709342969667</v>
       </c>
       <c r="D20">
-        <v>1.028995505717804</v>
+        <v>1.011700544702192</v>
       </c>
       <c r="E20">
-        <v>1.047293632251876</v>
+        <v>1.003576449894794</v>
       </c>
       <c r="F20">
-        <v>1.052123266950438</v>
+        <v>1.00972058447703</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033987075084676</v>
+        <v>1.039781676933908</v>
       </c>
       <c r="J20">
-        <v>1.029990461217737</v>
+        <v>1.019910967325015</v>
       </c>
       <c r="K20">
-        <v>1.032393699975512</v>
+        <v>1.025540727644027</v>
       </c>
       <c r="L20">
-        <v>1.050628186521115</v>
+        <v>1.017556701916594</v>
       </c>
       <c r="M20">
-        <v>1.055441429868635</v>
+        <v>1.023594635829155</v>
       </c>
       <c r="N20">
-        <v>1.014045039826979</v>
+        <v>1.010630739655691</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.022900407136299</v>
+        <v>0.9878424726797396</v>
       </c>
       <c r="D21">
-        <v>1.028414599710118</v>
+        <v>1.008820468549649</v>
       </c>
       <c r="E21">
-        <v>1.046167415863016</v>
+        <v>0.9982996863711717</v>
       </c>
       <c r="F21">
-        <v>1.050993641784692</v>
+        <v>1.004382977816774</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033823462798555</v>
+        <v>1.038653129087055</v>
       </c>
       <c r="J21">
-        <v>1.029581941567956</v>
+        <v>1.017857438447612</v>
       </c>
       <c r="K21">
-        <v>1.032023198325642</v>
+        <v>1.023636639375434</v>
       </c>
       <c r="L21">
-        <v>1.049710121371331</v>
+        <v>1.013313343475888</v>
       </c>
       <c r="M21">
-        <v>1.05451885889337</v>
+        <v>1.019281786411701</v>
       </c>
       <c r="N21">
-        <v>1.013909329564457</v>
+        <v>1.009947302241964</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.022391741760162</v>
+        <v>0.9851308583795463</v>
       </c>
       <c r="D22">
-        <v>1.028049898029101</v>
+        <v>1.006978080271652</v>
       </c>
       <c r="E22">
-        <v>1.045460792397</v>
+        <v>0.9949183870101851</v>
       </c>
       <c r="F22">
-        <v>1.050284726947573</v>
+        <v>1.000961624315957</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033719653271877</v>
+        <v>1.037921274812344</v>
       </c>
       <c r="J22">
-        <v>1.029324962806759</v>
+        <v>1.016537835725478</v>
       </c>
       <c r="K22">
-        <v>1.031790006227184</v>
+        <v>1.022412556022609</v>
       </c>
       <c r="L22">
-        <v>1.049133714226052</v>
+        <v>1.010591188300377</v>
       </c>
       <c r="M22">
-        <v>1.053939470446578</v>
+        <v>1.016514055280725</v>
       </c>
       <c r="N22">
-        <v>1.013823946956634</v>
+        <v>1.009508145360416</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.022661333645047</v>
+        <v>0.9865734961464399</v>
       </c>
       <c r="D23">
-        <v>1.02824318178581</v>
+        <v>1.007957827097915</v>
       </c>
       <c r="E23">
-        <v>1.045835246753177</v>
+        <v>0.9967170992273279</v>
       </c>
       <c r="F23">
-        <v>1.050660410011139</v>
+        <v>1.002781741385587</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033774773545346</v>
+        <v>1.038311394827503</v>
       </c>
       <c r="J23">
-        <v>1.029461203689837</v>
+        <v>1.017240142242309</v>
       </c>
       <c r="K23">
-        <v>1.03191364841439</v>
+        <v>1.02306407091654</v>
       </c>
       <c r="L23">
-        <v>1.049439200739061</v>
+        <v>1.012039546084343</v>
       </c>
       <c r="M23">
-        <v>1.054246551425188</v>
+        <v>1.017986753171655</v>
       </c>
       <c r="N23">
-        <v>1.013869215081031</v>
+        <v>1.009741866788841</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.023724039420417</v>
+        <v>0.9921409556739392</v>
       </c>
       <c r="D24">
-        <v>1.029005253652806</v>
+        <v>1.01174830951965</v>
       </c>
       <c r="E24">
-        <v>1.047312538299873</v>
+        <v>1.003663879713495</v>
       </c>
       <c r="F24">
-        <v>1.052142227628339</v>
+        <v>1.009809004012003</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033989802082744</v>
+        <v>1.039800227404709</v>
       </c>
       <c r="J24">
-        <v>1.029997307878097</v>
+        <v>1.019944925862806</v>
       </c>
       <c r="K24">
-        <v>1.032399907278831</v>
+        <v>1.025572205690955</v>
       </c>
       <c r="L24">
-        <v>1.050643591766167</v>
+        <v>1.017626957580482</v>
       </c>
       <c r="M24">
-        <v>1.0554569081321</v>
+        <v>1.023666024761518</v>
       </c>
       <c r="N24">
-        <v>1.014047314044889</v>
+        <v>1.010642041696668</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.024959972585346</v>
+        <v>0.99838374636686</v>
       </c>
       <c r="D25">
-        <v>1.029891872820123</v>
+        <v>1.01601614905869</v>
       </c>
       <c r="E25">
-        <v>1.049033224374845</v>
+        <v>1.011466837676772</v>
       </c>
       <c r="F25">
-        <v>1.053867517539299</v>
+        <v>1.017697602004074</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034235215525556</v>
+        <v>1.041434429672134</v>
       </c>
       <c r="J25">
-        <v>1.030618838296126</v>
+        <v>1.022965626590526</v>
       </c>
       <c r="K25">
-        <v>1.032963086168237</v>
+        <v>1.02837082043209</v>
       </c>
       <c r="L25">
-        <v>1.052044738010013</v>
+        <v>1.023889715983854</v>
       </c>
       <c r="M25">
-        <v>1.056864327715711</v>
+        <v>1.030027259890235</v>
       </c>
       <c r="N25">
-        <v>1.014253729587672</v>
+        <v>1.011647402588287</v>
       </c>
     </row>
   </sheetData>
